--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nodal-Tdgf1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nodal-Tdgf1.xlsx
@@ -528,25 +528,25 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7934986666666667</v>
+        <v>1.591135333333333</v>
       </c>
       <c r="H2">
-        <v>2.380496</v>
+        <v>4.773406</v>
       </c>
       <c r="I2">
-        <v>0.2980902158625083</v>
+        <v>0.4707829234247397</v>
       </c>
       <c r="J2">
-        <v>0.2980902158625084</v>
+        <v>0.4707829234247397</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,10 +555,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1145363333333333</v>
+        <v>0.006530999999999999</v>
       </c>
       <c r="N2">
-        <v>0.343609</v>
+        <v>0.019593</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.09088442778488889</v>
+        <v>0.010391704862</v>
       </c>
       <c r="R2">
-        <v>0.817959850064</v>
+        <v>0.09352534375799999</v>
       </c>
       <c r="S2">
-        <v>0.2980902158625083</v>
+        <v>0.4707829234247397</v>
       </c>
       <c r="T2">
-        <v>0.2980902158625084</v>
+        <v>0.4707829234247397</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,10 +605,10 @@
         <v>3.078262</v>
       </c>
       <c r="I3">
-        <v>0.38546579538943</v>
+        <v>0.3035973020998604</v>
       </c>
       <c r="J3">
-        <v>0.3854657953894301</v>
+        <v>0.3035973020998604</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,10 +617,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.1145363333333333</v>
+        <v>0.006530999999999999</v>
       </c>
       <c r="N3">
-        <v>0.343609</v>
+        <v>0.019593</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.1175242808397778</v>
+        <v>0.006701376374</v>
       </c>
       <c r="R3">
-        <v>1.057718527558</v>
+        <v>0.060312387366</v>
       </c>
       <c r="S3">
-        <v>0.38546579538943</v>
+        <v>0.3035973020998604</v>
       </c>
       <c r="T3">
-        <v>0.3854657953894301</v>
+        <v>0.3035973020998604</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.65586</v>
+        <v>0.730693</v>
       </c>
       <c r="H4">
-        <v>1.96758</v>
+        <v>2.192079</v>
       </c>
       <c r="I4">
-        <v>0.2463840926121086</v>
+        <v>0.2161964349979826</v>
       </c>
       <c r="J4">
-        <v>0.2463840926121087</v>
+        <v>0.2161964349979826</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,10 +679,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1145363333333333</v>
+        <v>0.006530999999999999</v>
       </c>
       <c r="N4">
-        <v>0.343609</v>
+        <v>0.019593</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.07511979958000001</v>
+        <v>0.004772155983</v>
       </c>
       <c r="R4">
-        <v>0.67607819622</v>
+        <v>0.042949403847</v>
       </c>
       <c r="S4">
-        <v>0.2463840926121086</v>
+        <v>0.2161964349979826</v>
       </c>
       <c r="T4">
-        <v>0.2463840926121087</v>
+        <v>0.2161964349979826</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1864953333333333</v>
+        <v>0.03184866666666667</v>
       </c>
       <c r="H5">
-        <v>0.5594859999999999</v>
+        <v>0.09554600000000001</v>
       </c>
       <c r="I5">
-        <v>0.0700598961359529</v>
+        <v>0.009423339477417213</v>
       </c>
       <c r="J5">
-        <v>0.07005989613595291</v>
+        <v>0.009423339477417213</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,10 +741,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1145363333333333</v>
+        <v>0.006530999999999999</v>
       </c>
       <c r="N5">
-        <v>0.343609</v>
+        <v>0.019593</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.02136049166377778</v>
+        <v>0.000208003642</v>
       </c>
       <c r="R5">
-        <v>0.192244424974</v>
+        <v>0.001872032778</v>
       </c>
       <c r="S5">
-        <v>0.0700598961359529</v>
+        <v>0.009423339477417213</v>
       </c>
       <c r="T5">
-        <v>0.07005989613595291</v>
+        <v>0.009423339477417213</v>
       </c>
     </row>
   </sheetData>
